--- a/data/georgia_census/kakheti/lagodexi/education_graduates.xlsx
+++ b/data/georgia_census/kakheti/lagodexi/education_graduates.xlsx
@@ -1876,13 +1876,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26CEA2C8-595E-4FFE-BAD5-77D6DC5B5251}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE5D44C8-3DE8-486E-BA74-63CA78721E8C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD2331E9-1F29-4A40-8DF8-2986E59172B4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E50CF5D-8F34-4F71-AC96-A31D39496D58}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A82AC20-4C06-4DCC-92D2-8E6B1D9FB7BC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC223E2-61D0-4CCB-A2BB-2A2EB953124B}"/>
 </file>